--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3568.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3568.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.185565628796738</v>
+        <v>0.6741689443588257</v>
       </c>
       <c r="B1">
-        <v>1.693665980093718</v>
+        <v>2.185449838638306</v>
       </c>
       <c r="C1">
-        <v>3.193483419952389</v>
+        <v>2.381294965744019</v>
       </c>
       <c r="D1">
-        <v>4.997911685917393</v>
+        <v>0.7261258363723755</v>
       </c>
       <c r="E1">
-        <v>1.157392095917113</v>
+        <v>0.8192710280418396</v>
       </c>
     </row>
   </sheetData>
